--- a/media/import.xlsx
+++ b/media/import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wpnya/PycharmProjects/Grady/misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wpnya/PycharmProjects/Grady/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61E1794-AB19-3140-AC7D-6117480D0B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8C8771-3907-384D-A256-FFB71E59ED22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{F39B7E5C-4D42-B947-92E7-1C3155FD2D13}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27200" windowHeight="14860" xr2:uid="{F39B7E5C-4D42-B947-92E7-1C3155FD2D13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>email</t>
   </si>
@@ -80,22 +80,19 @@
     <t>Экселева</t>
   </si>
   <si>
-    <t>administrator</t>
-  </si>
-  <si>
     <t>wunpoll@gmail.com</t>
   </si>
   <si>
     <t>Экселововна</t>
   </si>
   <si>
-    <t>Эксельер</t>
-  </si>
-  <si>
-    <t>Экселеверов</t>
-  </si>
-  <si>
-    <t>Экселеверович</t>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Полетаев</t>
+  </si>
+  <si>
+    <t>Николаевич</t>
   </si>
 </sst>
 </file>
@@ -481,7 +478,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,7 +517,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -542,19 +539,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
